--- a/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Servicios/Garantias/Toyota - CEL - Analisis - Garantias.xlsx
+++ b/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Servicios/Garantias/Toyota - CEL - Analisis - Garantias.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GARANTIAS\ownCloud2\ACE-GARANTIAS-1\GARANTIAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\Fuentes - Toyota\Distribuidor\Servicios\Garantias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA3A9AF-9569-4983-A54A-3CBB249A38C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866EE653-BE21-40BE-A1DF-CC8130ADF0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="60" yWindow="30" windowWidth="19950" windowHeight="10590" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="FTO Task List" sheetId="4" r:id="rId1"/>
+    <sheet name="FTO Data List" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="273">
   <si>
     <t>Tipo</t>
   </si>
@@ -601,11 +602,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>- Incluir FECHA DOFU en Impresión DE LA Orden.
-- Falta en Orden campo : KM de Salida ( Tipo G , Revisar uso en otros Tipo )
-- Sugieren que estos campos esten Visibles en la SCR Inicial, ahora tienen que usar OPC Editar VIN.</t>
-  </si>
-  <si>
     <t>Incluir : 
 - Campo Flate Rate en la Orden (SCR &amp; RPT) , Actualmente Sistemas Actualiza este costo de M.O. para Ordenes de Garantia en base a email enviado por Garantias (soportado por el Boletin Toyota).
 - Ver porsibilidad que lo registre el Jefe del Proceso.</t>
@@ -843,9 +839,147 @@
     <t>ID Task</t>
   </si>
   <si>
-    <t>Se comparte Archivo de excel con Informacion de las campañas, por sistema solo se puede registrar cve y dscrp (lo que limita el control).
+    <t>2.- Campañas Vigentes.xlsx
+3.- Campañas.xlsx</t>
+  </si>
+  <si>
+    <t>T - Texto
+N - Entero
+D - Decimal
+F - Fecha
+H - Hora
+FH - F &amp; H
+S - Flag / ST
+C - Catalogo
+R - Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V - Ventas
+S - Servicio
+</t>
+  </si>
+  <si>
+    <t>A - A,B,C
+V - View</t>
+  </si>
+  <si>
+    <t>K - K75
+T - Toyota
+D - DISTR</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Type Aux</t>
+  </si>
+  <si>
+    <t>TBL - Entity</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>K75</t>
+  </si>
+  <si>
+    <t>K75 - Ref</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>APP - Ref</t>
+  </si>
+  <si>
+    <t>TOY</t>
+  </si>
+  <si>
+    <t>TOY Ref</t>
+  </si>
+  <si>
+    <t>DISTR</t>
+  </si>
+  <si>
+    <t>DISTR - Ref</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Cobertura</t>
+  </si>
+  <si>
+    <t>DMS - Ref</t>
+  </si>
+  <si>
+    <t>S / N</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Garantia Seminuevos</t>
+  </si>
+  <si>
+    <t>S - G - 001</t>
+  </si>
+  <si>
+    <t>Datos Asociados a Garantias de Autos Seminuevos - En Toyota manejan el Termino ComoNuevos.</t>
+  </si>
+  <si>
+    <t>Autos</t>
+  </si>
+  <si>
+    <t>S, V</t>
+  </si>
+  <si>
+    <t>Garantias</t>
+  </si>
+  <si>
+    <t>Folio Garantia Seminuevos</t>
+  </si>
+  <si>
+    <t>Fecha Inicio Garantia Seminuevos</t>
+  </si>
+  <si>
+    <t>Fecha Expiracion Garantia Seminuevos</t>
+  </si>
+  <si>
+    <t>KM Inicio Garantia Seminuevos</t>
+  </si>
+  <si>
+    <t>KM Limite Garantia Seminuevos</t>
+  </si>
+  <si>
+    <t>Para Gestion de las Campañas, el Sistema hoy solo tiene un CAT Simple donde solo maneja Cve, Descrip.</t>
+  </si>
+  <si>
+    <t>S - G - 002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se comparte Archivo de excel con Informacion de las campañas, por sistema solo se puede registrar cve y dscrp (lo que limita el control).
 1.- Campos Requeridos para Gestion que No estan en K75 : 
-- Estatus ( CAT : Activa, Preliminar, Expirada … Controles Actuales )
+- Estatus ( CAT : Activa, Preliminar, Expirada … son los valores actuales )
 - Fecha Publicacion 
 - Fecha Actualizacion 
 - Fecha Expiracion 
@@ -855,14 +989,129 @@
 - Modelo 
 - Año 
 - Codigo de Operacion
-2.- Reporte Nuevo de Campañas : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.- Reporte Nuevo de Campañas : 
 Reporte Estrucutarado en Excel  ( HOY ) , En realidad es un Historico de las Campañas, donde manejan codigos de colores por Estatus.
 3.- Reporte o Control Nuevo de Campañas : 
 Reporte Estructurado en Excel ( HOY ), sale del Reporte (2) ; En hoja BUSCADOR Digitan la Campaña y les da la Informacion Asociado.</t>
-  </si>
-  <si>
-    <t>2.- Campañas Vigentes.xlsx
-3.- Campañas.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Activa, Preliminar, Expirada (VAL Actuales)</t>
+  </si>
+  <si>
+    <t>Fecha Publicacion</t>
+  </si>
+  <si>
+    <t>Fecha Actualizacion</t>
+  </si>
+  <si>
+    <t>Fecha Expiracion</t>
+  </si>
+  <si>
+    <t>Estatus Campaña</t>
+  </si>
+  <si>
+    <t>Campañas</t>
+  </si>
+  <si>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>Remedio</t>
+  </si>
+  <si>
+    <t>Para Gestion de las Campañas, el Sistema hoy solo tiene un CAT Simple donde solo maneja Cve, Descrip.
+Descripcion de en que consiste la Campaña.</t>
+  </si>
+  <si>
+    <t>Para Gestion de las Campañas, el Sistema hoy solo tiene un CAT Simple donde solo maneja Cve, Descrip.
+Descripcion de en que consiste la Solucion de la Campaña.</t>
+  </si>
+  <si>
+    <t>Tiempo M.O.</t>
+  </si>
+  <si>
+    <t>Tiempo Mano de Obra estipulado por Toyota para la Reparacion ( Flate Rate ).</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Codigo de Operacion</t>
+  </si>
+  <si>
+    <t>Codigo Toyota como ID Asociado a la Campaña</t>
+  </si>
+  <si>
+    <t>Auto ( Descripcion )</t>
+  </si>
+  <si>
+    <t>El Modelo del Auto, ver si se puede Asociar con el CAT de los Autos que ya se tiene en el Sistema.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.- Incluir FECHA DOFU en Impresion de la Orden.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2.- Falta en Orden campo : KM de Salida ( Tipo G , Revisar uso en otros Tipo )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.- Sugieren que estos campos esten Visibles en la SCR Inicial, ahora tienen que usar OPC Editar VIN.</t>
+    </r>
+  </si>
+  <si>
+    <t>S - G - 003</t>
+  </si>
+  <si>
+    <t>Ordenes</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>KM de Salida</t>
+  </si>
+  <si>
+    <t>Los estan solicitando para las Ordenes Tipo G (Garantias)</t>
   </si>
 </sst>
 </file>
@@ -944,7 +1193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1290,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1054,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1119,6 +1380,52 @@
     <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,7 +1444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1436,13 +1743,13 @@
   <dimension ref="B2:AA55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="Y23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="X23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Y25" sqref="Y25"/>
+      <selection pane="bottomRight" activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="16.85546875" style="3" customWidth="1"/>
@@ -1468,9 +1775,10 @@
     <col min="22" max="22" width="32.140625" style="3" customWidth="1"/>
     <col min="23" max="23" width="39.42578125" style="3" customWidth="1"/>
     <col min="24" max="24" width="22.85546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="67.140625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="68.42578125" style="3" customWidth="1"/>
     <col min="26" max="26" width="32" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="3"/>
+    <col min="27" max="27" width="10.28515625" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1942,7 @@
         <v>157</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="30" x14ac:dyDescent="0.25">
@@ -1679,7 +1987,7 @@
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
     </row>
-    <row r="6" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
@@ -1768,10 +2076,12 @@
       </c>
       <c r="X7" s="14"/>
       <c r="Y7" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="AA7" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1851,14 +2161,14 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X9" s="14"/>
       <c r="Y9" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
@@ -1944,13 +2254,13 @@
         <v>57</v>
       </c>
       <c r="W11" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X11" s="14" t="s">
         <v>50</v>
       </c>
       <c r="Y11" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
@@ -2291,7 +2601,7 @@
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>13</v>
       </c>
@@ -2455,19 +2765,21 @@
         <v>128</v>
       </c>
       <c r="V23" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W23" s="14" t="s">
         <v>129</v>
       </c>
       <c r="X23" s="14"/>
       <c r="Y23" s="15" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="Z23" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA23" s="15"/>
+        <v>206</v>
+      </c>
+      <c r="AA23" s="15" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="24" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -2511,7 +2823,7 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
     </row>
-    <row r="25" spans="2:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2869,7 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
     </row>
-    <row r="26" spans="2:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>13</v>
       </c>
@@ -2601,9 +2913,9 @@
       <c r="X26" s="14"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-    </row>
-    <row r="27" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="AA26" s="16"/>
+    </row>
+    <row r="27" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
@@ -2642,14 +2954,14 @@
         <v>134</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X27" s="14"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
     </row>
-    <row r="28" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>13</v>
       </c>
@@ -2688,14 +3000,14 @@
         <v>134</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X28" s="14"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
     </row>
-    <row r="29" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +3053,7 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
     </row>
-    <row r="30" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>13</v>
       </c>
@@ -2780,14 +3092,14 @@
         <v>134</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X30" s="14"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
     </row>
-    <row r="31" spans="2:27" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" ht="210" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>13</v>
       </c>
@@ -2820,7 +3132,7 @@
         <v>139</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>140</v>
@@ -2831,15 +3143,17 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="15" t="s">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
+      <c r="AA31" s="15" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
@@ -3053,14 +3367,14 @@
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="W36" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X36" s="14"/>
-      <c r="Y36" s="15" t="s">
-        <v>161</v>
+      <c r="Y36" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -3107,7 +3421,7 @@
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
     </row>
-    <row r="38" spans="2:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>13</v>
       </c>
@@ -3146,7 +3460,7 @@
         <v>153</v>
       </c>
       <c r="W38" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X38" s="14"/>
       <c r="Y38" s="15"/>
@@ -3161,17 +3475,17 @@
         <v>36</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>169</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>47</v>
@@ -3203,17 +3517,17 @@
         <v>36</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>47</v>
@@ -3245,14 +3559,14 @@
         <v>36</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
@@ -3285,14 +3599,14 @@
         <v>36</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
@@ -3323,17 +3637,17 @@
         <v>36</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>47</v>
@@ -3357,7 +3671,7 @@
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
     </row>
-    <row r="44" spans="2:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" ht="405" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>13</v>
       </c>
@@ -3365,7 +3679,7 @@
         <v>36</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11" t="s">
@@ -3384,24 +3698,24 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="14"/>
       <c r="S44" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T44" s="14"/>
       <c r="U44" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="V44" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="V44" s="14" t="s">
+      <c r="W44" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="W44" s="14" t="s">
-        <v>184</v>
       </c>
       <c r="X44" s="14"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
     </row>
-    <row r="45" spans="2:27" ht="375" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" ht="195" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3723,7 @@
         <v>36</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -3426,24 +3740,24 @@
       <c r="Q45" s="13"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T45" s="14"/>
       <c r="U45" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="V45" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="V45" s="14" t="s">
-        <v>186</v>
-      </c>
       <c r="W45" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X45" s="14"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
     </row>
-    <row r="46" spans="2:27" ht="180" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>13</v>
       </c>
@@ -3451,7 +3765,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3468,24 +3782,24 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T46" s="14"/>
       <c r="U46" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="V46" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="W46" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="V46" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="W46" s="14" t="s">
-        <v>191</v>
       </c>
       <c r="X46" s="14"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
     </row>
-    <row r="47" spans="2:27" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" ht="90" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
@@ -3493,7 +3807,7 @@
         <v>36</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -3510,24 +3824,24 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T47" s="14"/>
       <c r="U47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="V47" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="W47" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="W47" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="X47" s="14"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
     </row>
-    <row r="48" spans="2:27" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" ht="120" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>13</v>
       </c>
@@ -3535,7 +3849,7 @@
         <v>36</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3552,17 +3866,17 @@
       <c r="Q48" s="13"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T48" s="14"/>
       <c r="U48" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="V48" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="W48" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="W48" s="14" t="s">
-        <v>200</v>
       </c>
       <c r="X48" s="14"/>
       <c r="Y48" s="15"/>
@@ -3804,4 +4118,899 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4549E587-BE9F-43A5-985D-9FBB04696421}">
+  <dimension ref="B2:X21"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="54" style="22" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="22" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="22" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="22" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="8" style="22" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="22" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="24"/>
+    <col min="21" max="21" width="11.7109375" style="24" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" ht="135" x14ac:dyDescent="0.25">
+      <c r="C2" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="U2" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="S3" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="U3" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+    </row>
+    <row r="5" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+    </row>
+    <row r="6" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S6" s="35"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S7" s="35"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S8" s="35"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+    </row>
+    <row r="9" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S9" s="35"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+    </row>
+    <row r="10" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+    </row>
+    <row r="13" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+    </row>
+    <row r="14" spans="2:24" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S14" s="35"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+    </row>
+    <row r="15" spans="2:24" s="37" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S15" s="35"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+    </row>
+    <row r="16" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S16" s="35"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+    </row>
+    <row r="17" spans="2:24" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+    </row>
+    <row r="18" spans="2:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+    </row>
+    <row r="19" spans="2:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S19" s="35"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+    </row>
+    <row r="20" spans="2:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="S20" s="35"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="2:24" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>